--- a/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 05, 2024</t>
+          <t>August 06, 2024</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>

--- a/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/2324/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S75"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
         <f>IF(E9&gt;1,(1.732*D9*F9)/1000,(D9*F9)/1000)</f>
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -699,7 +703,7 @@
         <f>IF(E10&gt;1,(1.732*D10*F10)/1000,(D10*F10)/1000)</f>
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -730,6 +734,7 @@
         <f>IF(E11&gt;1,(1.732*D11*F11)/1000,(D11*F11)/1000)</f>
         <v/>
       </c>
+      <c r="S11" s="9" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
@@ -756,6 +761,7 @@
         <f>IF(E12&gt;1,(1.732*D12*F12)/1000,(D12*F12)/1000)</f>
         <v/>
       </c>
+      <c r="S12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
@@ -773,6 +779,7 @@
       </c>
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="8" t="n"/>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -799,6 +806,7 @@
         <f>IF(E14&gt;1,(1.732*D14*F14)/1000,(D14*F14)/1000)</f>
         <v/>
       </c>
+      <c r="S14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -814,7 +822,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
-      <c r="S15" t="inlineStr">
+      <c r="S15" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -845,7 +853,7 @@
         <f>IF(E16&gt;1,(1.732*D16*F16)/1000,(D16*F16)/1000)</f>
         <v/>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #12</t>
         </is>
@@ -865,7 +873,7 @@
       </c>
       <c r="F17" s="7" t="n"/>
       <c r="G17" s="8" t="n"/>
-      <c r="S17" t="inlineStr">
+      <c r="S17" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -885,6 +893,7 @@
       </c>
       <c r="F18" s="7" t="n"/>
       <c r="G18" s="8" t="n"/>
+      <c r="S18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -916,7 +925,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #12</t>
         </is>
@@ -947,7 +956,7 @@
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="S20" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -970,6 +979,7 @@
       <c r="M21" t="n">
         <v>70000</v>
       </c>
+      <c r="S21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
@@ -988,6 +998,7 @@
       <c r="M22" t="n">
         <v>140000</v>
       </c>
+      <c r="S22" s="9" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
@@ -1005,6 +1016,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1033,6 +1045,7 @@
       <c r="J24" t="n">
         <v>30</v>
       </c>
+      <c r="S24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -1051,6 +1064,7 @@
       <c r="M25" t="n">
         <v>35000</v>
       </c>
+      <c r="S25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -1069,6 +1083,7 @@
       <c r="M26" t="n">
         <v>70000</v>
       </c>
+      <c r="S26" s="9" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
@@ -1086,6 +1101,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
+      <c r="S27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1103,6 +1119,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
+      <c r="S28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1118,7 +1135,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
-      <c r="S29" t="inlineStr">
+      <c r="S29" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1149,7 +1166,7 @@
         <f>IF(E30&gt;1,(1.732*D30*F30)/1000,(D30*F30)/1000)</f>
         <v/>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="S30" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1180,7 +1197,7 @@
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1200,7 +1217,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #23</t>
         </is>
@@ -1231,7 +1248,7 @@
         <f>IF(E33&gt;1,(1.732*D33*F33)/1000,(D33*F33)/1000)</f>
         <v/>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="S33" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #23</t>
         </is>
@@ -1267,7 +1284,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND NSF7 RAIL PART OF ITEM #23</t>
         </is>
@@ -1298,7 +1315,7 @@
         <f>IF(E35&gt;1,(1.732*D35*F35)/1000,(D35*F35)/1000)</f>
         <v/>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S35" s="9" t="inlineStr">
         <is>
           <t>COUNTERTOP</t>
         </is>
@@ -1347,7 +1364,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1369,6 +1386,7 @@
       </c>
       <c r="F37" s="7" t="n"/>
       <c r="G37" s="8" t="n"/>
+      <c r="S37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -1386,6 +1404,7 @@
       </c>
       <c r="F38" s="7" t="n"/>
       <c r="G38" s="8" t="n"/>
+      <c r="S38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1419,7 +1438,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S39" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #28</t>
         </is>
@@ -1439,7 +1458,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
-      <c r="S40" t="inlineStr">
+      <c r="S40" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #28</t>
         </is>
@@ -1459,7 +1478,7 @@
       </c>
       <c r="F41" s="7" t="n"/>
       <c r="G41" s="8" t="n"/>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1490,7 +1509,7 @@
         <f>IF(E42&gt;1,(1.732*D42*F42)/1000,(D42*F42)/1000)</f>
         <v/>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1512,6 +1531,7 @@
       </c>
       <c r="F43" s="7" t="n"/>
       <c r="G43" s="8" t="n"/>
+      <c r="S43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -1538,7 +1558,7 @@
         <f>IF(E44&gt;1,(1.732*D44*F44)/1000,(D44*F44)/1000)</f>
         <v/>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="S44" s="9" t="inlineStr">
         <is>
           <t>AUTOMATIC</t>
         </is>
@@ -1569,6 +1589,7 @@
         <f>IF(E45&gt;1,(1.732*D45*F45)/1000,(D45*F45)/1000)</f>
         <v/>
       </c>
+      <c r="S45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -1595,6 +1616,7 @@
         <f>IF(E46&gt;1,(1.732*D46*F46)/1000,(D46*F46)/1000)</f>
         <v/>
       </c>
+      <c r="S46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
@@ -1612,6 +1634,7 @@
       </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="8" t="n"/>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1629,6 +1652,7 @@
       </c>
       <c r="F48" s="7" t="n"/>
       <c r="G48" s="8" t="n"/>
+      <c r="S48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1655,6 +1679,7 @@
         <f>IF(E49&gt;1,(1.732*D49*F49)/1000,(D49*F49)/1000)</f>
         <v/>
       </c>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1681,6 +1706,7 @@
         <f>IF(E50&gt;1,(1.732*D50*F50)/1000,(D50*F50)/1000)</f>
         <v/>
       </c>
+      <c r="S50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -1707,7 +1733,7 @@
         <f>IF(E51&gt;1,(1.732*D51*F51)/1000,(D51*F51)/1000)</f>
         <v/>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1743,6 +1769,7 @@
           <t>1/4"</t>
         </is>
       </c>
+      <c r="S52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -1760,6 +1787,7 @@
       </c>
       <c r="F53" s="7" t="n"/>
       <c r="G53" s="8" t="n"/>
+      <c r="S53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1786,7 +1814,7 @@
         <f>IF(E54&gt;1,(1.732*D54*F54)/1000,(D54*F54)/1000)</f>
         <v/>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1817,7 +1845,7 @@
         <f>IF(E55&gt;1,(1.732*D55*F55)/1000,(D55*F55)/1000)</f>
         <v/>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="S55" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1848,7 +1876,7 @@
         <f>IF(E56&gt;1,(1.732*D56*F56)/1000,(D56*F56)/1000)</f>
         <v/>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1870,6 +1898,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
+      <c r="S57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1885,7 +1914,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1907,6 +1936,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1924,6 +1954,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
+      <c r="S60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -1941,6 +1972,7 @@
       </c>
       <c r="F61" s="7" t="n"/>
       <c r="G61" s="8" t="n"/>
+      <c r="S61" s="9" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
@@ -1960,6 +1992,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
+      <c r="S62" s="9" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -2018,7 +2051,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="S64" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2038,7 +2071,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
-      <c r="S65" t="inlineStr">
+      <c r="S65" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2058,7 +2091,7 @@
       </c>
       <c r="F66" s="7" t="n"/>
       <c r="G66" s="8" t="n"/>
-      <c r="S66" t="inlineStr">
+      <c r="S66" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2091,7 +2124,7 @@
       <c r="J67" t="n">
         <v>50</v>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -2113,6 +2146,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
+      <c r="S68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -2133,7 +2167,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2153,7 +2187,7 @@
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="8" t="n"/>
-      <c r="S70" t="inlineStr">
+      <c r="S70" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2191,6 +2225,7 @@
           <t>2"</t>
         </is>
       </c>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -2208,6 +2243,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
+      <c r="S72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
@@ -2227,43 +2263,45 @@
       </c>
       <c r="F73" s="7" t="n"/>
       <c r="G73" s="8" t="n"/>
+      <c r="S73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="inlineStr">
+      <c r="A75" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="11">
         <f>SUM(G7:G74)</f>
         <v/>
       </c>
-      <c r="J75" s="10">
+      <c r="J75" s="11">
         <f>SUM(J7:J74)</f>
         <v/>
       </c>
-      <c r="M75" s="10">
+      <c r="M75" s="11">
         <f>SUM(M7:M74)</f>
         <v/>
       </c>
-      <c r="N75" s="10">
+      <c r="N75" s="11">
         <f>SUM(N7:N74)</f>
         <v/>
       </c>
-      <c r="O75" s="10">
+      <c r="O75" s="11">
         <f>SUM(O7:O74)</f>
         <v/>
       </c>
-      <c r="P75" s="10">
+      <c r="P75" s="11">
         <f>SUM(P7:P74)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>